--- a/artfynd/A 2338-2026 artfynd.xlsx
+++ b/artfynd/A 2338-2026 artfynd.xlsx
@@ -924,7 +924,7 @@
         <v>127298723</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>127298726</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
